--- a/Code/Results/Cases/Case_7_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01237234882432</v>
+        <v>1.015459577856687</v>
       </c>
       <c r="D2">
-        <v>1.02719219532605</v>
+        <v>1.030319559322327</v>
       </c>
       <c r="E2">
-        <v>1.024984847249653</v>
+        <v>1.028010329589419</v>
       </c>
       <c r="F2">
-        <v>1.031648701779265</v>
+        <v>1.034788502666502</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046771500204782</v>
+        <v>1.048944784912356</v>
       </c>
       <c r="J2">
-        <v>1.034189199023487</v>
+        <v>1.037187526861162</v>
       </c>
       <c r="K2">
-        <v>1.038285264925117</v>
+        <v>1.041372056402622</v>
       </c>
       <c r="L2">
-        <v>1.036106740384036</v>
+        <v>1.03909275536248</v>
       </c>
       <c r="M2">
-        <v>1.042684048543398</v>
+        <v>1.045783554320308</v>
       </c>
       <c r="N2">
-        <v>1.035657866309275</v>
+        <v>1.038660452116386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018583279468109</v>
+        <v>1.019509756797031</v>
       </c>
       <c r="D3">
-        <v>1.031856173555737</v>
+        <v>1.033289065878837</v>
       </c>
       <c r="E3">
-        <v>1.03029548122368</v>
+        <v>1.031421083490885</v>
       </c>
       <c r="F3">
-        <v>1.03736873730898</v>
+        <v>1.038633096112473</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048608068777352</v>
+        <v>1.050123200506641</v>
       </c>
       <c r="J3">
-        <v>1.038579853530308</v>
+        <v>1.039482335719416</v>
       </c>
       <c r="K3">
-        <v>1.042097049465616</v>
+        <v>1.04351301311258</v>
       </c>
       <c r="L3">
-        <v>1.040554862071896</v>
+        <v>1.041667111235601</v>
       </c>
       <c r="M3">
-        <v>1.047544802767451</v>
+        <v>1.048794416620908</v>
       </c>
       <c r="N3">
-        <v>1.040054756049095</v>
+        <v>1.040958519866428</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022500510778623</v>
+        <v>1.022082220351332</v>
       </c>
       <c r="D4">
-        <v>1.034799843146751</v>
+        <v>1.035177803721195</v>
       </c>
       <c r="E4">
-        <v>1.033650939695127</v>
+        <v>1.033593070723446</v>
       </c>
       <c r="F4">
-        <v>1.040983409859205</v>
+        <v>1.041081360291167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049755477562641</v>
+        <v>1.050863746398173</v>
       </c>
       <c r="J4">
-        <v>1.041345652761265</v>
+        <v>1.040937444886085</v>
       </c>
       <c r="K4">
-        <v>1.044495651340711</v>
+        <v>1.044869421914899</v>
       </c>
       <c r="L4">
-        <v>1.043359507560501</v>
+        <v>1.043302282202139</v>
       </c>
       <c r="M4">
-        <v>1.050611137644868</v>
+        <v>1.050708017642317</v>
       </c>
       <c r="N4">
-        <v>1.042824483032203</v>
+        <v>1.042415695455017</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024124118012875</v>
+        <v>1.023152491613491</v>
       </c>
       <c r="D5">
-        <v>1.036020350167792</v>
+        <v>1.03596420768032</v>
       </c>
       <c r="E5">
-        <v>1.035043087707671</v>
+        <v>1.034498048037627</v>
       </c>
       <c r="F5">
-        <v>1.042483240044561</v>
+        <v>1.042101461268879</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050228383229911</v>
+        <v>1.051169918125128</v>
       </c>
       <c r="J5">
-        <v>1.042491151448136</v>
+        <v>1.041542229638586</v>
       </c>
       <c r="K5">
-        <v>1.045488438251726</v>
+        <v>1.045432901230243</v>
       </c>
       <c r="L5">
-        <v>1.044521726532873</v>
+        <v>1.043982581850575</v>
       </c>
       <c r="M5">
-        <v>1.051882162914622</v>
+        <v>1.051504440713725</v>
       </c>
       <c r="N5">
-        <v>1.043971608458598</v>
+        <v>1.043021339071236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024395400248455</v>
+        <v>1.02333154883594</v>
       </c>
       <c r="D6">
-        <v>1.036224302282573</v>
+        <v>1.036095807514477</v>
       </c>
       <c r="E6">
-        <v>1.035275775795608</v>
+        <v>1.034649528343754</v>
       </c>
       <c r="F6">
-        <v>1.042733934724863</v>
+        <v>1.042272212514087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050307240722174</v>
+        <v>1.051221026463148</v>
       </c>
       <c r="J6">
-        <v>1.042682496029609</v>
+        <v>1.041643373815504</v>
       </c>
       <c r="K6">
-        <v>1.045654236118708</v>
+        <v>1.045527120630733</v>
       </c>
       <c r="L6">
-        <v>1.044715901126189</v>
+        <v>1.044096394977296</v>
       </c>
       <c r="M6">
-        <v>1.052094537505993</v>
+        <v>1.051637697972597</v>
       </c>
       <c r="N6">
-        <v>1.044163224771325</v>
+        <v>1.043122626884487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022522295194614</v>
+        <v>1.022096564875289</v>
       </c>
       <c r="D7">
-        <v>1.034816217495709</v>
+        <v>1.035188341357862</v>
       </c>
       <c r="E7">
-        <v>1.033669613169425</v>
+        <v>1.033605194676894</v>
       </c>
       <c r="F7">
-        <v>1.041003527170387</v>
+        <v>1.041095026499545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049761833303379</v>
+        <v>1.050867857593806</v>
       </c>
       <c r="J7">
-        <v>1.041361025742609</v>
+        <v>1.040945553088083</v>
       </c>
       <c r="K7">
-        <v>1.044508977400438</v>
+        <v>1.044876977472577</v>
       </c>
       <c r="L7">
-        <v>1.04337510243981</v>
+        <v>1.043311400138851</v>
       </c>
       <c r="M7">
-        <v>1.050628191064353</v>
+        <v>1.050718690831031</v>
       </c>
       <c r="N7">
-        <v>1.042839877844943</v>
+        <v>1.042423815171591</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014493121950326</v>
+        <v>1.016838574485269</v>
       </c>
       <c r="D8">
-        <v>1.028784253920227</v>
+        <v>1.031330027288234</v>
       </c>
       <c r="E8">
-        <v>1.026796892742584</v>
+        <v>1.029170411998217</v>
       </c>
       <c r="F8">
-        <v>1.033600330907006</v>
+        <v>1.036096149214101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047400875833855</v>
+        <v>1.049347649507794</v>
       </c>
       <c r="J8">
-        <v>1.035689102889918</v>
+        <v>1.037969351125307</v>
       </c>
       <c r="K8">
-        <v>1.039587944470427</v>
+        <v>1.042101699387324</v>
       </c>
       <c r="L8">
-        <v>1.037625716291128</v>
+        <v>1.039969233084165</v>
       </c>
       <c r="M8">
-        <v>1.044343614970227</v>
+        <v>1.046808404172395</v>
       </c>
       <c r="N8">
-        <v>1.037159900211222</v>
+        <v>1.039443386660654</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9995105278819983</v>
+        <v>1.007186419372991</v>
       </c>
       <c r="D9">
-        <v>1.017549607904007</v>
+        <v>1.024270403030199</v>
       </c>
       <c r="E9">
-        <v>1.014024275235074</v>
+        <v>1.021075825002646</v>
       </c>
       <c r="F9">
-        <v>1.019845805789156</v>
+        <v>1.026971559070278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042909986963433</v>
+        <v>1.046495624767263</v>
       </c>
       <c r="J9">
-        <v>1.025080582518769</v>
+        <v>1.032487934163445</v>
       </c>
       <c r="K9">
-        <v>1.030364230149879</v>
+        <v>1.03698161086015</v>
       </c>
       <c r="L9">
-        <v>1.026893843545222</v>
+        <v>1.033835971869</v>
       </c>
       <c r="M9">
-        <v>1.032624900195099</v>
+        <v>1.039641689507749</v>
       </c>
       <c r="N9">
-        <v>1.026536314524332</v>
+        <v>1.033954185457978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9888759183947059</v>
+        <v>1.000466162160309</v>
       </c>
       <c r="D10">
-        <v>1.009596099485191</v>
+        <v>1.019373805283717</v>
       </c>
       <c r="E10">
-        <v>1.004998918066186</v>
+        <v>1.015473752640158</v>
       </c>
       <c r="F10">
-        <v>1.01012876194041</v>
+        <v>1.020655756748161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039668102760179</v>
+        <v>1.044470464997097</v>
       </c>
       <c r="J10">
-        <v>1.017537949053721</v>
+        <v>1.028661297056756</v>
       </c>
       <c r="K10">
-        <v>1.023794228303926</v>
+        <v>1.033401853804029</v>
       </c>
       <c r="L10">
-        <v>1.019278498295153</v>
+        <v>1.029569133254816</v>
       </c>
       <c r="M10">
-        <v>1.02431751533673</v>
+        <v>1.034661818339081</v>
       </c>
       <c r="N10">
-        <v>1.018982969654611</v>
+        <v>1.030122114087676</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9840961302478914</v>
+        <v>0.9974824384906413</v>
       </c>
       <c r="D11">
-        <v>1.006027888839382</v>
+        <v>1.017204880869602</v>
       </c>
       <c r="E11">
-        <v>1.000953375763549</v>
+        <v>1.01299505009993</v>
       </c>
       <c r="F11">
-        <v>1.005773556646348</v>
+        <v>1.017860900887674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038199035323063</v>
+        <v>1.043562426025395</v>
       </c>
       <c r="J11">
-        <v>1.014145829374029</v>
+        <v>1.026960327313108</v>
       </c>
       <c r="K11">
-        <v>1.020837016331398</v>
+        <v>1.031809471886653</v>
       </c>
       <c r="L11">
-        <v>1.015857335182432</v>
+        <v>1.027675990455946</v>
       </c>
       <c r="M11">
-        <v>1.020587407359316</v>
+        <v>1.032453668269846</v>
       </c>
       <c r="N11">
-        <v>1.015586032775893</v>
+        <v>1.028418728771888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9822923545767679</v>
+        <v>0.9963625093814724</v>
       </c>
       <c r="D12">
-        <v>1.004682464636677</v>
+        <v>1.016391613484312</v>
       </c>
       <c r="E12">
-        <v>0.9994284562108724</v>
+        <v>1.012066014332985</v>
       </c>
       <c r="F12">
-        <v>1.00413195851882</v>
+        <v>1.016813302514395</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037642927606565</v>
+        <v>1.043220302761495</v>
       </c>
       <c r="J12">
-        <v>1.012865511485206</v>
+        <v>1.026321616161938</v>
       </c>
       <c r="K12">
-        <v>1.019720502501293</v>
+        <v>1.031211372656885</v>
       </c>
       <c r="L12">
-        <v>1.014566614295368</v>
+        <v>1.026965642854507</v>
       </c>
       <c r="M12">
-        <v>1.019180422571513</v>
+        <v>1.031625322821539</v>
       </c>
       <c r="N12">
-        <v>1.014303896688813</v>
+        <v>1.027779110577623</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9826805890367862</v>
+        <v>0.9966032740158374</v>
       </c>
       <c r="D13">
-        <v>1.00497199250582</v>
+        <v>1.016566412834012</v>
       </c>
       <c r="E13">
-        <v>0.9997565892628889</v>
+        <v>1.012265679149732</v>
       </c>
       <c r="F13">
-        <v>1.004485196687481</v>
+        <v>1.017038451546675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037762697229867</v>
+        <v>1.043293910929991</v>
       </c>
       <c r="J13">
-        <v>1.013141087987985</v>
+        <v>1.026458938630175</v>
       </c>
       <c r="K13">
-        <v>1.019960836869373</v>
+        <v>1.031339970765751</v>
       </c>
       <c r="L13">
-        <v>1.014844404532576</v>
+        <v>1.027118343447781</v>
       </c>
       <c r="M13">
-        <v>1.019483221984638</v>
+        <v>1.031803379988029</v>
       </c>
       <c r="N13">
-        <v>1.014579864541835</v>
+        <v>1.027916628059516</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9839476206376111</v>
+        <v>0.9973901055941391</v>
       </c>
       <c r="D14">
-        <v>1.005917092644942</v>
+        <v>1.017137813550973</v>
       </c>
       <c r="E14">
-        <v>1.00082778844626</v>
+        <v>1.012918428010144</v>
       </c>
       <c r="F14">
-        <v>1.005638359220711</v>
+        <v>1.017774501782298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038153283867925</v>
+        <v>1.043534245645285</v>
       </c>
       <c r="J14">
-        <v>1.014040421223047</v>
+        <v>1.026907673608005</v>
       </c>
       <c r="K14">
-        <v>1.020745100977707</v>
+        <v>1.031760169368589</v>
       </c>
       <c r="L14">
-        <v>1.015751059147391</v>
+        <v>1.027617420576902</v>
       </c>
       <c r="M14">
-        <v>1.020471552368938</v>
+        <v>1.032385365147522</v>
       </c>
       <c r="N14">
-        <v>1.015480474933246</v>
+        <v>1.028366000292484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9847244585113963</v>
+        <v>0.9978733388175589</v>
       </c>
       <c r="D15">
-        <v>1.00649670264121</v>
+        <v>1.017488851128808</v>
       </c>
       <c r="E15">
-        <v>1.001484795027386</v>
+        <v>1.013319491964014</v>
       </c>
       <c r="F15">
-        <v>1.006345642587793</v>
+        <v>1.018226738918679</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038392535457112</v>
+        <v>1.043681677877194</v>
       </c>
       <c r="J15">
-        <v>1.014591791813541</v>
+        <v>1.02718323159598</v>
       </c>
       <c r="K15">
-        <v>1.021225879299124</v>
+        <v>1.032018182681169</v>
       </c>
       <c r="L15">
-        <v>1.016306992290178</v>
+        <v>1.027923961644684</v>
       </c>
       <c r="M15">
-        <v>1.021077605259104</v>
+        <v>1.032742855854076</v>
       </c>
       <c r="N15">
-        <v>1.016032628533221</v>
+        <v>1.028641949604409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9891892798903873</v>
+        <v>1.000662580631702</v>
       </c>
       <c r="D16">
-        <v>1.009830178322783</v>
+        <v>1.019516697361927</v>
       </c>
       <c r="E16">
-        <v>1.005264380175373</v>
+        <v>1.015637108264274</v>
       </c>
       <c r="F16">
-        <v>1.010414550560882</v>
+        <v>1.020839939558501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039764172523085</v>
+        <v>1.044530059207616</v>
       </c>
       <c r="J16">
-        <v>1.017760300658311</v>
+        <v>1.028773233775218</v>
       </c>
       <c r="K16">
-        <v>1.023988022343892</v>
+        <v>1.033506621474158</v>
       </c>
       <c r="L16">
-        <v>1.019502830353112</v>
+        <v>1.029693789251101</v>
       </c>
       <c r="M16">
-        <v>1.024562146006547</v>
+        <v>1.034807244271629</v>
       </c>
       <c r="N16">
-        <v>1.019205637023984</v>
+        <v>1.030234209769118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9919417159011309</v>
+        <v>1.002392058285133</v>
       </c>
       <c r="D17">
-        <v>1.01188698623438</v>
+        <v>1.020775461858423</v>
       </c>
       <c r="E17">
-        <v>1.007597342894914</v>
+        <v>1.017076446965824</v>
       </c>
       <c r="F17">
-        <v>1.012926190647962</v>
+        <v>1.02246274609246</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040606661245843</v>
+        <v>1.045053781632954</v>
       </c>
       <c r="J17">
-        <v>1.019713123375294</v>
+        <v>1.029758622562539</v>
       </c>
       <c r="K17">
-        <v>1.025689754930552</v>
+        <v>1.03442877046329</v>
       </c>
       <c r="L17">
-        <v>1.02147346168334</v>
+        <v>1.030791545515745</v>
       </c>
       <c r="M17">
-        <v>1.026711310296964</v>
+        <v>1.036088060695975</v>
       </c>
       <c r="N17">
-        <v>1.021161232973217</v>
+        <v>1.031220997921543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9935304373950454</v>
+        <v>1.003393750994356</v>
       </c>
       <c r="D18">
-        <v>1.013074794085921</v>
+        <v>1.021505005022397</v>
       </c>
       <c r="E18">
-        <v>1.008944967343904</v>
+        <v>1.017910904821294</v>
       </c>
       <c r="F18">
-        <v>1.014377063912359</v>
+        <v>1.023403536616482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041091814118603</v>
+        <v>1.045356267632649</v>
       </c>
       <c r="J18">
-        <v>1.020840104907319</v>
+        <v>1.030329156774599</v>
       </c>
       <c r="K18">
-        <v>1.026671592556598</v>
+        <v>1.034962579049441</v>
       </c>
       <c r="L18">
-        <v>1.022611064863856</v>
+        <v>1.031427472379678</v>
       </c>
       <c r="M18">
-        <v>1.027952160836177</v>
+        <v>1.036830163007465</v>
       </c>
       <c r="N18">
-        <v>1.022289814948284</v>
+        <v>1.031792342357625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9940693723956581</v>
+        <v>1.003734117261176</v>
       </c>
       <c r="D19">
-        <v>1.013477827624391</v>
+        <v>1.021752977230905</v>
       </c>
       <c r="E19">
-        <v>1.009402286487708</v>
+        <v>1.018194582146557</v>
       </c>
       <c r="F19">
-        <v>1.014869427321535</v>
+        <v>1.023723356943483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041256195277155</v>
+        <v>1.045458904676838</v>
       </c>
       <c r="J19">
-        <v>1.021222369590989</v>
+        <v>1.030522985651199</v>
       </c>
       <c r="K19">
-        <v>1.027004584016774</v>
+        <v>1.035143912051466</v>
       </c>
       <c r="L19">
-        <v>1.022996990462609</v>
+        <v>1.031643573712447</v>
       </c>
       <c r="M19">
-        <v>1.028373143758428</v>
+        <v>1.037082367041434</v>
       </c>
       <c r="N19">
-        <v>1.022672622491651</v>
+        <v>1.031986446493462</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.991648150071359</v>
+        <v>1.002207238146453</v>
       </c>
       <c r="D20">
-        <v>1.011667549790253</v>
+        <v>1.020640893938295</v>
       </c>
       <c r="E20">
-        <v>1.007348409396672</v>
+        <v>1.016922548071396</v>
       </c>
       <c r="F20">
-        <v>1.012658188056222</v>
+        <v>1.022289233712453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040516921595602</v>
+        <v>1.044997901820621</v>
       </c>
       <c r="J20">
-        <v>1.019504861694247</v>
+        <v>1.029653338820444</v>
       </c>
       <c r="K20">
-        <v>1.025508295726891</v>
+        <v>1.034330254922694</v>
       </c>
       <c r="L20">
-        <v>1.021263264959699</v>
+        <v>1.03067422140115</v>
       </c>
       <c r="M20">
-        <v>1.026482051294975</v>
+        <v>1.035951158416009</v>
       </c>
       <c r="N20">
-        <v>1.020952675536695</v>
+        <v>1.031115564664458</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.983575311692221</v>
+        <v>0.9971587292700732</v>
       </c>
       <c r="D21">
-        <v>1.00563934879093</v>
+        <v>1.016969763640701</v>
       </c>
       <c r="E21">
-        <v>1.000512973886791</v>
+        <v>1.012726442975891</v>
       </c>
       <c r="F21">
-        <v>1.005299455319618</v>
+        <v>1.017558018256675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038038559058492</v>
+        <v>1.043463607924507</v>
       </c>
       <c r="J21">
-        <v>1.013776163161119</v>
+        <v>1.026775725043391</v>
       </c>
       <c r="K21">
-        <v>1.020514663858488</v>
+        <v>1.031636616191683</v>
       </c>
       <c r="L21">
-        <v>1.015484634333718</v>
+        <v>1.027470654703393</v>
       </c>
       <c r="M21">
-        <v>1.020181118667439</v>
+        <v>1.032214212671145</v>
       </c>
       <c r="N21">
-        <v>1.015215841594559</v>
+        <v>1.028233864345774</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9783343878520397</v>
+        <v>0.9939168796804999</v>
       </c>
       <c r="D22">
-        <v>1.001732504305328</v>
+        <v>1.01461724760052</v>
       </c>
       <c r="E22">
-        <v>0.9960857807541311</v>
+        <v>1.010039756686099</v>
       </c>
       <c r="F22">
-        <v>1.000533589208932</v>
+        <v>1.014528320279606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036419611701545</v>
+        <v>1.042470863801113</v>
       </c>
       <c r="J22">
-        <v>1.010055864451755</v>
+        <v>1.024926408494884</v>
       </c>
       <c r="K22">
-        <v>1.017269717899818</v>
+        <v>1.029904591053848</v>
       </c>
       <c r="L22">
-        <v>1.01173517994615</v>
+        <v>1.025414913675958</v>
       </c>
       <c r="M22">
-        <v>1.016094482998833</v>
+        <v>1.029817359819955</v>
       </c>
       <c r="N22">
-        <v>1.011490259634304</v>
+        <v>1.026381921555649</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9811291096086532</v>
+        <v>0.9956420515700348</v>
       </c>
       <c r="D23">
-        <v>1.003815146659333</v>
+        <v>1.015868674970554</v>
       </c>
       <c r="E23">
-        <v>0.9984455591602014</v>
+        <v>1.011468742204116</v>
       </c>
       <c r="F23">
-        <v>1.003073866720287</v>
+        <v>1.016139786892834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037283823671625</v>
+        <v>1.042999853179028</v>
       </c>
       <c r="J23">
-        <v>1.012039793240056</v>
+        <v>1.025910661167868</v>
       </c>
       <c r="K23">
-        <v>1.019000332904102</v>
+        <v>1.030826503414382</v>
       </c>
       <c r="L23">
-        <v>1.0137343457368</v>
+        <v>1.026508743564275</v>
       </c>
       <c r="M23">
-        <v>1.018273268755245</v>
+        <v>1.031092582418862</v>
       </c>
       <c r="N23">
-        <v>1.013477005829043</v>
+        <v>1.027367571980324</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9917808513744808</v>
+        <v>1.002290772258311</v>
       </c>
       <c r="D24">
-        <v>1.011766740327679</v>
+        <v>1.020701713806735</v>
       </c>
       <c r="E24">
-        <v>1.007460932261045</v>
+        <v>1.016992104041651</v>
       </c>
       <c r="F24">
-        <v>1.012779330413187</v>
+        <v>1.022367654272638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040557490369529</v>
+        <v>1.045023160738457</v>
       </c>
       <c r="J24">
-        <v>1.019599003371205</v>
+        <v>1.029700925052121</v>
       </c>
       <c r="K24">
-        <v>1.025590322475675</v>
+        <v>1.03437478239942</v>
       </c>
       <c r="L24">
-        <v>1.021358280276812</v>
+        <v>1.030727248619194</v>
       </c>
       <c r="M24">
-        <v>1.026585682770701</v>
+        <v>1.036013034016259</v>
       </c>
       <c r="N24">
-        <v>1.021046950905633</v>
+        <v>1.031163218474041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003491048185178</v>
+        <v>1.009730104684764</v>
       </c>
       <c r="D25">
-        <v>1.020531313687514</v>
+        <v>1.026127868416896</v>
       </c>
       <c r="E25">
-        <v>1.017411108253609</v>
+        <v>1.023203384099879</v>
       </c>
       <c r="F25">
-        <v>1.023492596736546</v>
+        <v>1.029369949126511</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044112668551316</v>
+        <v>1.047254199958854</v>
       </c>
       <c r="J25">
-        <v>1.027901493117552</v>
+        <v>1.033934391177543</v>
       </c>
       <c r="K25">
-        <v>1.032819053852474</v>
+        <v>1.038333684054945</v>
       </c>
       <c r="L25">
-        <v>1.02974502062505</v>
+        <v>1.035451867579179</v>
       </c>
       <c r="M25">
-        <v>1.035736846854039</v>
+        <v>1.041528822269368</v>
       </c>
       <c r="N25">
-        <v>1.029361231139728</v>
+        <v>1.035402696606947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015459577856687</v>
+        <v>1.009536102244297</v>
       </c>
       <c r="D2">
-        <v>1.030319559322327</v>
+        <v>1.024310193782174</v>
       </c>
       <c r="E2">
-        <v>1.028010329589419</v>
+        <v>1.024102540424302</v>
       </c>
       <c r="F2">
-        <v>1.034788502666502</v>
+        <v>1.03372106772534</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048944784912356</v>
+        <v>1.045876873557497</v>
       </c>
       <c r="J2">
-        <v>1.037187526861162</v>
+        <v>1.031435283681887</v>
       </c>
       <c r="K2">
-        <v>1.041372056402622</v>
+        <v>1.035440927600083</v>
       </c>
       <c r="L2">
-        <v>1.03909275536248</v>
+        <v>1.035235998277555</v>
       </c>
       <c r="M2">
-        <v>1.045783554320308</v>
+        <v>1.044729784137333</v>
       </c>
       <c r="N2">
-        <v>1.038660452116386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014365412653717</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043973006090039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019509756797031</v>
+        <v>1.012814387797168</v>
       </c>
       <c r="D3">
-        <v>1.033289065878837</v>
+        <v>1.02654312935193</v>
       </c>
       <c r="E3">
-        <v>1.031421083490885</v>
+        <v>1.026639570470864</v>
       </c>
       <c r="F3">
-        <v>1.038633096112473</v>
+        <v>1.036228563705599</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050123200506641</v>
+        <v>1.046611045750261</v>
       </c>
       <c r="J3">
-        <v>1.039482335719416</v>
+        <v>1.032961712491058</v>
       </c>
       <c r="K3">
-        <v>1.04351301311258</v>
+        <v>1.036847287006537</v>
       </c>
       <c r="L3">
-        <v>1.041667111235601</v>
+        <v>1.036942572210226</v>
       </c>
       <c r="M3">
-        <v>1.048794416620908</v>
+        <v>1.046417964040834</v>
       </c>
       <c r="N3">
-        <v>1.040958519866428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01487990410173</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045309079676649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022082220351332</v>
+        <v>1.014901329027224</v>
       </c>
       <c r="D4">
-        <v>1.035177803721195</v>
+        <v>1.027967422223034</v>
       </c>
       <c r="E4">
-        <v>1.033593070723446</v>
+        <v>1.028260413495808</v>
       </c>
       <c r="F4">
-        <v>1.041081360291167</v>
+        <v>1.037831729343895</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050863746398173</v>
+        <v>1.047070874870584</v>
       </c>
       <c r="J4">
-        <v>1.040937444886085</v>
+        <v>1.033931388351398</v>
       </c>
       <c r="K4">
-        <v>1.044869421914899</v>
+        <v>1.037739627759201</v>
       </c>
       <c r="L4">
-        <v>1.043302282202139</v>
+        <v>1.038029317258622</v>
       </c>
       <c r="M4">
-        <v>1.050708017642317</v>
+        <v>1.047494032234723</v>
       </c>
       <c r="N4">
-        <v>1.042415695455017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015206642257041</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046160709377389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023152491613491</v>
+        <v>1.015770667600086</v>
       </c>
       <c r="D5">
-        <v>1.03596420768032</v>
+        <v>1.028561369018089</v>
       </c>
       <c r="E5">
-        <v>1.034498048037627</v>
+        <v>1.028936952928716</v>
       </c>
       <c r="F5">
-        <v>1.042101461268879</v>
+        <v>1.038501173365783</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051169918125128</v>
+        <v>1.0472605844398</v>
       </c>
       <c r="J5">
-        <v>1.041542229638586</v>
+        <v>1.034334805089456</v>
       </c>
       <c r="K5">
-        <v>1.045432901230243</v>
+        <v>1.038110609122434</v>
       </c>
       <c r="L5">
-        <v>1.043982581850575</v>
+        <v>1.038482072218549</v>
       </c>
       <c r="M5">
-        <v>1.051504440713725</v>
+        <v>1.047942587206968</v>
       </c>
       <c r="N5">
-        <v>1.043021339071236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015342551334303</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046515707718135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02333154883594</v>
+        <v>1.015916169451372</v>
       </c>
       <c r="D6">
-        <v>1.036095807514477</v>
+        <v>1.028660815080859</v>
       </c>
       <c r="E6">
-        <v>1.034649528343754</v>
+        <v>1.029050264929015</v>
       </c>
       <c r="F6">
-        <v>1.042272212514087</v>
+        <v>1.038613313532671</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051221026463148</v>
+        <v>1.047292227482976</v>
       </c>
       <c r="J6">
-        <v>1.041643373815504</v>
+        <v>1.034402294477504</v>
       </c>
       <c r="K6">
-        <v>1.045527120630733</v>
+        <v>1.038172656676551</v>
       </c>
       <c r="L6">
-        <v>1.044096394977296</v>
+        <v>1.038557852940173</v>
       </c>
       <c r="M6">
-        <v>1.051637697972597</v>
+        <v>1.048017679519138</v>
       </c>
       <c r="N6">
-        <v>1.043122626884487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015365286679861</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046575137755414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022096564875289</v>
+        <v>1.014912976381835</v>
       </c>
       <c r="D7">
-        <v>1.035188341357862</v>
+        <v>1.027975377403897</v>
       </c>
       <c r="E7">
-        <v>1.033605194676894</v>
+        <v>1.028269472408913</v>
       </c>
       <c r="F7">
-        <v>1.041095026499545</v>
+        <v>1.037840692135841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050867857593806</v>
+        <v>1.047073423878024</v>
       </c>
       <c r="J7">
-        <v>1.040945553088083</v>
+        <v>1.033936795361073</v>
       </c>
       <c r="K7">
-        <v>1.044876977472577</v>
+        <v>1.037744601078133</v>
       </c>
       <c r="L7">
-        <v>1.043311400138851</v>
+        <v>1.0380353830448</v>
       </c>
       <c r="M7">
-        <v>1.050718690831031</v>
+        <v>1.047500040772786</v>
       </c>
       <c r="N7">
-        <v>1.042423815171591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01520846395073</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046165464695426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016838574485269</v>
+        <v>1.010651249094478</v>
       </c>
       <c r="D8">
-        <v>1.031330027288234</v>
+        <v>1.025069142869568</v>
       </c>
       <c r="E8">
-        <v>1.029170411998217</v>
+        <v>1.024964314497854</v>
       </c>
       <c r="F8">
-        <v>1.036096149214101</v>
+        <v>1.034572559604318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049347649507794</v>
+        <v>1.046128170475576</v>
       </c>
       <c r="J8">
-        <v>1.037969351125307</v>
+        <v>1.03195492909312</v>
       </c>
       <c r="K8">
-        <v>1.042101699387324</v>
+        <v>1.035919915167618</v>
       </c>
       <c r="L8">
-        <v>1.039969233084165</v>
+        <v>1.035816421474034</v>
       </c>
       <c r="M8">
-        <v>1.046808404172395</v>
+        <v>1.045303734319904</v>
       </c>
       <c r="N8">
-        <v>1.039443386660654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014540581402724</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044427246861146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007186419372991</v>
+        <v>1.002868966782489</v>
       </c>
       <c r="D9">
-        <v>1.024270403030199</v>
+        <v>1.019785935936786</v>
       </c>
       <c r="E9">
-        <v>1.021075825002646</v>
+        <v>1.018975762878771</v>
       </c>
       <c r="F9">
-        <v>1.026971559070278</v>
+        <v>1.028660556022646</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046495624767263</v>
+        <v>1.044343842002847</v>
       </c>
       <c r="J9">
-        <v>1.032487934163445</v>
+        <v>1.02832081962535</v>
       </c>
       <c r="K9">
-        <v>1.03698161086015</v>
+        <v>1.032565954083245</v>
       </c>
       <c r="L9">
-        <v>1.033835971869</v>
+        <v>1.031768294930474</v>
       </c>
       <c r="M9">
-        <v>1.039641689507749</v>
+        <v>1.041305140928475</v>
       </c>
       <c r="N9">
-        <v>1.033954185457978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013315200202236</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04126263853459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000466162160309</v>
+        <v>0.9975330449914811</v>
       </c>
       <c r="D10">
-        <v>1.019373805283717</v>
+        <v>1.016189506634975</v>
       </c>
       <c r="E10">
-        <v>1.015473752640158</v>
+        <v>1.014936540079915</v>
       </c>
       <c r="F10">
-        <v>1.020655756748161</v>
+        <v>1.024727797456596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044470464997097</v>
+        <v>1.043100882514778</v>
       </c>
       <c r="J10">
-        <v>1.028661297056756</v>
+        <v>1.025844883695467</v>
       </c>
       <c r="K10">
-        <v>1.033401853804029</v>
+        <v>1.03027248008079</v>
       </c>
       <c r="L10">
-        <v>1.029569133254816</v>
+        <v>1.029041247834194</v>
       </c>
       <c r="M10">
-        <v>1.034661818339081</v>
+        <v>1.038664489877946</v>
       </c>
       <c r="N10">
-        <v>1.030122114087676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012482848719091</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039224131331917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974824384906413</v>
+        <v>0.9955744765857272</v>
       </c>
       <c r="D11">
-        <v>1.017204880869602</v>
+        <v>1.014937705365898</v>
       </c>
       <c r="E11">
-        <v>1.01299505009993</v>
+        <v>1.013730162545507</v>
       </c>
       <c r="F11">
-        <v>1.017860900887674</v>
+        <v>1.023942069209647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043562426025395</v>
+        <v>1.042779926791088</v>
       </c>
       <c r="J11">
-        <v>1.026960327313108</v>
+        <v>1.025132528512151</v>
       </c>
       <c r="K11">
-        <v>1.031809471886653</v>
+        <v>1.029583311421303</v>
       </c>
       <c r="L11">
-        <v>1.027675990455946</v>
+        <v>1.028397711464235</v>
       </c>
       <c r="M11">
-        <v>1.032453668269846</v>
+        <v>1.038426169572109</v>
       </c>
       <c r="N11">
-        <v>1.028418728771888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012268476176211</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039471236479805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9963625093814724</v>
+        <v>0.9949941883851486</v>
       </c>
       <c r="D12">
-        <v>1.016391613484312</v>
+        <v>1.014597571938874</v>
       </c>
       <c r="E12">
-        <v>1.012066014332985</v>
+        <v>1.013492151560705</v>
       </c>
       <c r="F12">
-        <v>1.016813302514395</v>
+        <v>1.023994850242288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043220302761495</v>
+        <v>1.042749286791111</v>
       </c>
       <c r="J12">
-        <v>1.026321616161938</v>
+        <v>1.025011924545457</v>
       </c>
       <c r="K12">
-        <v>1.031211372656885</v>
+        <v>1.029450349191055</v>
       </c>
       <c r="L12">
-        <v>1.026965642854507</v>
+        <v>1.028365349181064</v>
       </c>
       <c r="M12">
-        <v>1.031625322821539</v>
+        <v>1.038676346164895</v>
       </c>
       <c r="N12">
-        <v>1.027779110577623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012248945455103</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039995101057944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966032740158374</v>
+        <v>0.9954356622874544</v>
       </c>
       <c r="D13">
-        <v>1.016566412834012</v>
+        <v>1.014935252431172</v>
       </c>
       <c r="E13">
-        <v>1.012265679149732</v>
+        <v>1.013984865865926</v>
       </c>
       <c r="F13">
-        <v>1.017038451546675</v>
+        <v>1.024708098526323</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043293910929991</v>
+        <v>1.042943941619557</v>
       </c>
       <c r="J13">
-        <v>1.026458938630175</v>
+        <v>1.025341124448006</v>
       </c>
       <c r="K13">
-        <v>1.031339970765751</v>
+        <v>1.029738710622941</v>
       </c>
       <c r="L13">
-        <v>1.027118343447781</v>
+        <v>1.028805803071645</v>
       </c>
       <c r="M13">
-        <v>1.031803379988029</v>
+        <v>1.03933426273352</v>
       </c>
       <c r="N13">
-        <v>1.027916628059516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012378822202097</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040791619265198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973901055941391</v>
+        <v>0.9962061770666336</v>
       </c>
       <c r="D14">
-        <v>1.017137813550973</v>
+        <v>1.015477499433807</v>
       </c>
       <c r="E14">
-        <v>1.012918428010144</v>
+        <v>1.014658288250064</v>
       </c>
       <c r="F14">
-        <v>1.017774501782298</v>
+        <v>1.025503930111245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043534245645285</v>
+        <v>1.043181020862014</v>
       </c>
       <c r="J14">
-        <v>1.026907673608005</v>
+        <v>1.025773520627403</v>
       </c>
       <c r="K14">
-        <v>1.031760169368589</v>
+        <v>1.030129912701649</v>
       </c>
       <c r="L14">
-        <v>1.027617420576902</v>
+        <v>1.029325579238755</v>
       </c>
       <c r="M14">
-        <v>1.032385365147522</v>
+        <v>1.039976750737474</v>
       </c>
       <c r="N14">
-        <v>1.028366000292484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012536767121314</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041472596224446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978733388175589</v>
+        <v>0.9966181929431623</v>
       </c>
       <c r="D15">
-        <v>1.017488851128808</v>
+        <v>1.015759356179727</v>
       </c>
       <c r="E15">
-        <v>1.013319491964014</v>
+        <v>1.014987727175268</v>
       </c>
       <c r="F15">
-        <v>1.018226738918679</v>
+        <v>1.025855241062646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043681677877194</v>
+        <v>1.043289996223536</v>
       </c>
       <c r="J15">
-        <v>1.02718323159598</v>
+        <v>1.025980393955752</v>
       </c>
       <c r="K15">
-        <v>1.032018182681169</v>
+        <v>1.030319758534098</v>
       </c>
       <c r="L15">
-        <v>1.027923961644684</v>
+        <v>1.029562036440682</v>
       </c>
       <c r="M15">
-        <v>1.032742855854076</v>
+        <v>1.040236185182828</v>
       </c>
       <c r="N15">
-        <v>1.028641949604409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012609013621478</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041715143394608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000662580631702</v>
+        <v>0.9987842038221592</v>
       </c>
       <c r="D16">
-        <v>1.019516697361927</v>
+        <v>1.017209053247253</v>
       </c>
       <c r="E16">
-        <v>1.015637108264274</v>
+        <v>1.016601316064586</v>
       </c>
       <c r="F16">
-        <v>1.020839939558501</v>
+        <v>1.027409644446807</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044530059207616</v>
+        <v>1.043788699666401</v>
       </c>
       <c r="J16">
-        <v>1.028773233775218</v>
+        <v>1.026969202256313</v>
       </c>
       <c r="K16">
-        <v>1.033506621474158</v>
+        <v>1.031238606113164</v>
       </c>
       <c r="L16">
-        <v>1.029693789251101</v>
+        <v>1.030641344198254</v>
       </c>
       <c r="M16">
-        <v>1.034807244271629</v>
+        <v>1.041265759448971</v>
       </c>
       <c r="N16">
-        <v>1.030234209769118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012937708850548</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042490249508144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002392058285133</v>
+        <v>1.00004438266421</v>
       </c>
       <c r="D17">
-        <v>1.020775461858423</v>
+        <v>1.01803920907357</v>
       </c>
       <c r="E17">
-        <v>1.017076446965824</v>
+        <v>1.017487890292381</v>
       </c>
       <c r="F17">
-        <v>1.02246274609246</v>
+        <v>1.028181233691179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045053781632954</v>
+        <v>1.044045139861003</v>
       </c>
       <c r="J17">
-        <v>1.029758622562539</v>
+        <v>1.027500855418668</v>
       </c>
       <c r="K17">
-        <v>1.03442877046329</v>
+        <v>1.031738169517466</v>
       </c>
       <c r="L17">
-        <v>1.030791545515745</v>
+        <v>1.031196087289226</v>
       </c>
       <c r="M17">
-        <v>1.036088060695975</v>
+        <v>1.041712550180546</v>
       </c>
       <c r="N17">
-        <v>1.031220997921543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013106847334086</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042714540737548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003393750994356</v>
+        <v>1.000637477522872</v>
       </c>
       <c r="D18">
-        <v>1.021505005022397</v>
+        <v>1.018405766697942</v>
       </c>
       <c r="E18">
-        <v>1.017910904821294</v>
+        <v>1.017809046709443</v>
       </c>
       <c r="F18">
-        <v>1.023403536616482</v>
+        <v>1.028305073166396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045356267632649</v>
+        <v>1.044110822085425</v>
       </c>
       <c r="J18">
-        <v>1.030329156774599</v>
+        <v>1.027676423338294</v>
       </c>
       <c r="K18">
-        <v>1.034962579049441</v>
+        <v>1.03191417979893</v>
       </c>
       <c r="L18">
-        <v>1.031427472379678</v>
+        <v>1.031327293977282</v>
       </c>
       <c r="M18">
-        <v>1.036830163007465</v>
+        <v>1.041652478238603</v>
       </c>
       <c r="N18">
-        <v>1.031792342357625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013149936697558</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042429708828984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003734117261176</v>
+        <v>1.000622387059016</v>
       </c>
       <c r="D19">
-        <v>1.021752977230905</v>
+        <v>1.018349406092643</v>
       </c>
       <c r="E19">
-        <v>1.018194582146557</v>
+        <v>1.017609819679538</v>
       </c>
       <c r="F19">
-        <v>1.023723356943483</v>
+        <v>1.027830758177228</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045458904676838</v>
+        <v>1.044003935045895</v>
       </c>
       <c r="J19">
-        <v>1.030522985651199</v>
+        <v>1.027527412104696</v>
       </c>
       <c r="K19">
-        <v>1.035143912051466</v>
+        <v>1.031795860785359</v>
       </c>
       <c r="L19">
-        <v>1.031643573712447</v>
+        <v>1.031068401846256</v>
       </c>
       <c r="M19">
-        <v>1.037082367041434</v>
+        <v>1.041123723410044</v>
       </c>
       <c r="N19">
-        <v>1.031986446493462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013079677566216</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041686611682306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002207238146453</v>
+        <v>0.998914963116906</v>
       </c>
       <c r="D20">
-        <v>1.020640893938295</v>
+        <v>1.01711981454722</v>
       </c>
       <c r="E20">
-        <v>1.016922548071396</v>
+        <v>1.01598166169947</v>
       </c>
       <c r="F20">
-        <v>1.022289233712453</v>
+        <v>1.02574737753639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044997901820621</v>
+        <v>1.043426227201242</v>
       </c>
       <c r="J20">
-        <v>1.029653338820444</v>
+        <v>1.026487775285918</v>
       </c>
       <c r="K20">
-        <v>1.034330254922694</v>
+        <v>1.030868167310798</v>
       </c>
       <c r="L20">
-        <v>1.03067422140115</v>
+        <v>1.029749195760469</v>
       </c>
       <c r="M20">
-        <v>1.035951158416009</v>
+        <v>1.039352110766256</v>
       </c>
       <c r="N20">
-        <v>1.031115564664458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012699117082835</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039757770642539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9971587292700732</v>
+        <v>0.9948432592286658</v>
       </c>
       <c r="D21">
-        <v>1.016969763640701</v>
+        <v>1.014370528711194</v>
       </c>
       <c r="E21">
-        <v>1.012726442975891</v>
+        <v>1.012859734906847</v>
       </c>
       <c r="F21">
-        <v>1.017558018256675</v>
+        <v>1.022634326927737</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043463607924507</v>
+        <v>1.042438088008878</v>
       </c>
       <c r="J21">
-        <v>1.026775725043391</v>
+        <v>1.024558175106698</v>
       </c>
       <c r="K21">
-        <v>1.031636616191683</v>
+        <v>1.029084667447791</v>
       </c>
       <c r="L21">
-        <v>1.027470654703393</v>
+        <v>1.027601503772994</v>
       </c>
       <c r="M21">
-        <v>1.032214212671145</v>
+        <v>1.037199209137367</v>
       </c>
       <c r="N21">
-        <v>1.028233864345774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012045832869599</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038013064916491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9939168796804999</v>
+        <v>0.992262232985631</v>
       </c>
       <c r="D22">
-        <v>1.01461724760052</v>
+        <v>1.012636259411546</v>
       </c>
       <c r="E22">
-        <v>1.010039756686099</v>
+        <v>1.010905192928038</v>
       </c>
       <c r="F22">
-        <v>1.014528320279606</v>
+        <v>1.020710807595505</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042470863801113</v>
+        <v>1.041813228622371</v>
       </c>
       <c r="J22">
-        <v>1.024926408494884</v>
+        <v>1.023345841723496</v>
       </c>
       <c r="K22">
-        <v>1.029904591053848</v>
+        <v>1.027961478134384</v>
       </c>
       <c r="L22">
-        <v>1.025414913675958</v>
+        <v>1.026263667743293</v>
       </c>
       <c r="M22">
-        <v>1.029817359819955</v>
+        <v>1.035882849477017</v>
       </c>
       <c r="N22">
-        <v>1.026381921555649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011636748919005</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036971250133088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9956420515700348</v>
+        <v>0.9936348946881411</v>
       </c>
       <c r="D23">
-        <v>1.015868674970554</v>
+        <v>1.013558144853834</v>
       </c>
       <c r="E23">
-        <v>1.011468742204116</v>
+        <v>1.01194393944688</v>
       </c>
       <c r="F23">
-        <v>1.016139786892834</v>
+        <v>1.02173293069953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042999853179028</v>
+        <v>1.04214621374998</v>
       </c>
       <c r="J23">
-        <v>1.025910661167868</v>
+        <v>1.023990708079451</v>
       </c>
       <c r="K23">
-        <v>1.030826503414382</v>
+        <v>1.028559008538428</v>
       </c>
       <c r="L23">
-        <v>1.026508743564275</v>
+        <v>1.026975021102608</v>
       </c>
       <c r="M23">
-        <v>1.031092582418862</v>
+        <v>1.036582671106717</v>
       </c>
       <c r="N23">
-        <v>1.027367571980324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011854353733681</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037525114544937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002290772258311</v>
+        <v>0.9989429144665503</v>
       </c>
       <c r="D24">
-        <v>1.020701713806735</v>
+        <v>1.01713254755749</v>
       </c>
       <c r="E24">
-        <v>1.016992104041651</v>
+        <v>1.015976533880881</v>
       </c>
       <c r="F24">
-        <v>1.022367654272638</v>
+        <v>1.025703956757172</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045023160738457</v>
+        <v>1.043419044194826</v>
       </c>
       <c r="J24">
-        <v>1.029700925052121</v>
+        <v>1.026481716841003</v>
       </c>
       <c r="K24">
-        <v>1.03437478239942</v>
+        <v>1.030865331343363</v>
       </c>
       <c r="L24">
-        <v>1.030727248619194</v>
+        <v>1.02972877478568</v>
       </c>
       <c r="M24">
-        <v>1.036013034016259</v>
+        <v>1.039294233154676</v>
       </c>
       <c r="N24">
-        <v>1.031163218474041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012694822326283</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039671139785124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009730104684764</v>
+        <v>1.00491458324673</v>
       </c>
       <c r="D25">
-        <v>1.026127868416896</v>
+        <v>1.021171636903103</v>
       </c>
       <c r="E25">
-        <v>1.023203384099879</v>
+        <v>1.020544198516938</v>
       </c>
       <c r="F25">
-        <v>1.029369949126511</v>
+        <v>1.030207814221614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047254199958854</v>
+        <v>1.044819494104447</v>
       </c>
       <c r="J25">
-        <v>1.033934391177543</v>
+        <v>1.029277676524597</v>
       </c>
       <c r="K25">
-        <v>1.038333684054945</v>
+        <v>1.033449945999859</v>
       </c>
       <c r="L25">
-        <v>1.035451867579179</v>
+        <v>1.032831748758142</v>
       </c>
       <c r="M25">
-        <v>1.041528822269368</v>
+        <v>1.042354616668428</v>
       </c>
       <c r="N25">
-        <v>1.035402696606947</v>
+        <v>1.013637913926578</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042093226863132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009536102244297</v>
+        <v>1.009313237250964</v>
       </c>
       <c r="D2">
-        <v>1.024310193782174</v>
+        <v>1.023668938757885</v>
       </c>
       <c r="E2">
-        <v>1.024102540424302</v>
+        <v>1.023923796960812</v>
       </c>
       <c r="F2">
-        <v>1.03372106772534</v>
+        <v>1.033566838666024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045876873557497</v>
+        <v>1.045630687461599</v>
       </c>
       <c r="J2">
-        <v>1.031435283681887</v>
+        <v>1.031218914964533</v>
       </c>
       <c r="K2">
-        <v>1.035440927600083</v>
+        <v>1.034808089144752</v>
       </c>
       <c r="L2">
-        <v>1.035235998277555</v>
+        <v>1.035059600713114</v>
       </c>
       <c r="M2">
-        <v>1.044729784137333</v>
+        <v>1.044577532357029</v>
       </c>
       <c r="N2">
-        <v>1.014365412653717</v>
+        <v>1.015464428366214</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043973006090039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043852509581105</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021351619937958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012814387797168</v>
+        <v>1.012479253427165</v>
       </c>
       <c r="D3">
-        <v>1.02654312935193</v>
+        <v>1.025736472721334</v>
       </c>
       <c r="E3">
-        <v>1.026639570470864</v>
+        <v>1.026369446365313</v>
       </c>
       <c r="F3">
-        <v>1.036228563705599</v>
+        <v>1.036000410277818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046611045750261</v>
+        <v>1.046286429655106</v>
       </c>
       <c r="J3">
-        <v>1.032961712491058</v>
+        <v>1.032635407374163</v>
       </c>
       <c r="K3">
-        <v>1.036847287006537</v>
+        <v>1.036050309290169</v>
       </c>
       <c r="L3">
-        <v>1.036942572210226</v>
+        <v>1.036675686413453</v>
       </c>
       <c r="M3">
-        <v>1.046417964040834</v>
+        <v>1.046192483337533</v>
       </c>
       <c r="N3">
-        <v>1.01487990410173</v>
+        <v>1.015844004003477</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045309079676649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045130627976572</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02158447587719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014901329027224</v>
+        <v>1.014495363961124</v>
       </c>
       <c r="D4">
-        <v>1.027967422223034</v>
+        <v>1.027055884733005</v>
       </c>
       <c r="E4">
-        <v>1.028260413495808</v>
+        <v>1.027932568073314</v>
       </c>
       <c r="F4">
-        <v>1.037831729343895</v>
+        <v>1.037556900493407</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047070874870584</v>
+        <v>1.046696490029894</v>
       </c>
       <c r="J4">
-        <v>1.033931388351398</v>
+        <v>1.033535406947942</v>
       </c>
       <c r="K4">
-        <v>1.037739627759201</v>
+        <v>1.036838377400828</v>
       </c>
       <c r="L4">
-        <v>1.038029317258622</v>
+        <v>1.037705166541737</v>
       </c>
       <c r="M4">
-        <v>1.047494032234723</v>
+        <v>1.04722223059365</v>
       </c>
       <c r="N4">
-        <v>1.015206642257041</v>
+        <v>1.016085129797353</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046160709377389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045945598242882</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021729746351453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015770667600086</v>
+        <v>1.015335341869588</v>
       </c>
       <c r="D5">
-        <v>1.028561369018089</v>
+        <v>1.027606236864303</v>
       </c>
       <c r="E5">
-        <v>1.028936952928716</v>
+        <v>1.028585166517469</v>
       </c>
       <c r="F5">
-        <v>1.038501173365783</v>
+        <v>1.038206989145145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0472605844398</v>
+        <v>1.046865504532488</v>
       </c>
       <c r="J5">
-        <v>1.034334805089456</v>
+        <v>1.033909870433248</v>
       </c>
       <c r="K5">
-        <v>1.038110609122434</v>
+        <v>1.037165973117159</v>
       </c>
       <c r="L5">
-        <v>1.038482072218549</v>
+        <v>1.038134145411803</v>
       </c>
       <c r="M5">
-        <v>1.047942587206968</v>
+        <v>1.047651557943657</v>
       </c>
       <c r="N5">
-        <v>1.015342551334303</v>
+        <v>1.016185443253853</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046515707718135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046285379434583</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021789539158967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015916169451372</v>
+        <v>1.01547593785629</v>
       </c>
       <c r="D6">
-        <v>1.028660815080859</v>
+        <v>1.027698391888392</v>
       </c>
       <c r="E6">
-        <v>1.029050264929015</v>
+        <v>1.028694477440855</v>
       </c>
       <c r="F6">
-        <v>1.038613313532671</v>
+        <v>1.038315894821841</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047292227482976</v>
+        <v>1.046893685935796</v>
       </c>
       <c r="J6">
-        <v>1.034402294477504</v>
+        <v>1.033972517994628</v>
       </c>
       <c r="K6">
-        <v>1.038172656676551</v>
+        <v>1.037220762082862</v>
       </c>
       <c r="L6">
-        <v>1.038557852940173</v>
+        <v>1.038205951218988</v>
       </c>
       <c r="M6">
-        <v>1.048017679519138</v>
+        <v>1.047723436012213</v>
       </c>
       <c r="N6">
-        <v>1.015365286679861</v>
+        <v>1.016202224919083</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046575137755414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046342265652542</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021799504052646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014912976381835</v>
+        <v>1.014513073946165</v>
       </c>
       <c r="D7">
-        <v>1.027975377403897</v>
+        <v>1.027068262015156</v>
       </c>
       <c r="E7">
-        <v>1.028269472408913</v>
+        <v>1.027946629018829</v>
       </c>
       <c r="F7">
-        <v>1.037840692135841</v>
+        <v>1.03756981496875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047073423878024</v>
+        <v>1.046701979552525</v>
       </c>
       <c r="J7">
-        <v>1.033936795361073</v>
+        <v>1.03354672352488</v>
       </c>
       <c r="K7">
-        <v>1.037744601078133</v>
+        <v>1.036847719250297</v>
       </c>
       <c r="L7">
-        <v>1.0380353830448</v>
+        <v>1.03771617667461</v>
       </c>
       <c r="M7">
-        <v>1.047500040772786</v>
+        <v>1.047232146217662</v>
       </c>
       <c r="N7">
-        <v>1.01520846395073</v>
+        <v>1.016113886869969</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046165464695426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045953445735718</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.0217319991181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010651249094478</v>
+        <v>1.010409912245487</v>
       </c>
       <c r="D8">
-        <v>1.025069142869568</v>
+        <v>1.024386970607443</v>
       </c>
       <c r="E8">
-        <v>1.024964314497854</v>
+        <v>1.024770779669809</v>
       </c>
       <c r="F8">
-        <v>1.034572559604318</v>
+        <v>1.034406077706278</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046128170475576</v>
+        <v>1.045865189301597</v>
       </c>
       <c r="J8">
-        <v>1.03195492909312</v>
+        <v>1.031720394999916</v>
       </c>
       <c r="K8">
-        <v>1.035919915167618</v>
+        <v>1.035246434459437</v>
       </c>
       <c r="L8">
-        <v>1.035816421474034</v>
+        <v>1.035625351633668</v>
       </c>
       <c r="M8">
-        <v>1.045303734319904</v>
+        <v>1.045139323982586</v>
       </c>
       <c r="N8">
-        <v>1.014540581402724</v>
+        <v>1.015676994178703</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044427246861146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044297127794879</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021435924098788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002868966782489</v>
+        <v>1.002901088044114</v>
       </c>
       <c r="D9">
-        <v>1.019785935936786</v>
+        <v>1.019501272107972</v>
       </c>
       <c r="E9">
-        <v>1.018975762878771</v>
+        <v>1.019004357865505</v>
       </c>
       <c r="F9">
-        <v>1.028660556022646</v>
+        <v>1.028673887090699</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044343842002847</v>
+        <v>1.044269499431159</v>
       </c>
       <c r="J9">
-        <v>1.02832081962535</v>
+        <v>1.028351815708225</v>
       </c>
       <c r="K9">
-        <v>1.032565954083245</v>
+        <v>1.032285684268105</v>
       </c>
       <c r="L9">
-        <v>1.031768294930474</v>
+        <v>1.031796447807384</v>
       </c>
       <c r="M9">
-        <v>1.041305140928475</v>
+        <v>1.041318270793404</v>
       </c>
       <c r="N9">
-        <v>1.013315200202236</v>
+        <v>1.014783510774782</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04126263853459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041273029931294</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020867491415295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9975330449914811</v>
+        <v>0.9977839879683723</v>
       </c>
       <c r="D10">
-        <v>1.016189506634975</v>
+        <v>1.016200351297865</v>
       </c>
       <c r="E10">
-        <v>1.014936540079915</v>
+        <v>1.015142591898741</v>
       </c>
       <c r="F10">
-        <v>1.024727797456596</v>
+        <v>1.024884588046082</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043100882514778</v>
+        <v>1.043170127784981</v>
       </c>
       <c r="J10">
-        <v>1.025844883695467</v>
+        <v>1.026085804043083</v>
       </c>
       <c r="K10">
-        <v>1.03027248008079</v>
+        <v>1.030283136931826</v>
       </c>
       <c r="L10">
-        <v>1.029041247834194</v>
+        <v>1.029243720649706</v>
       </c>
       <c r="M10">
-        <v>1.038664489877946</v>
+        <v>1.038818623688267</v>
       </c>
       <c r="N10">
-        <v>1.012482848719091</v>
+        <v>1.014294431241137</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039224131331917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039346110524687</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020476289843158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9955744765857272</v>
+        <v>0.9959391091978784</v>
       </c>
       <c r="D11">
-        <v>1.014937705365898</v>
+        <v>1.015076237258507</v>
       </c>
       <c r="E11">
-        <v>1.013730162545507</v>
+        <v>1.014027854409257</v>
       </c>
       <c r="F11">
-        <v>1.023942069209647</v>
+        <v>1.02417261270963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042779926791088</v>
+        <v>1.042915490354033</v>
       </c>
       <c r="J11">
-        <v>1.025132528512151</v>
+        <v>1.025481807261372</v>
       </c>
       <c r="K11">
-        <v>1.029583311421303</v>
+        <v>1.029719330323883</v>
       </c>
       <c r="L11">
-        <v>1.028397711464235</v>
+        <v>1.028689987505073</v>
       </c>
       <c r="M11">
-        <v>1.038426169572109</v>
+        <v>1.038652626327246</v>
       </c>
       <c r="N11">
-        <v>1.012268476176211</v>
+        <v>1.014378566776825</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039471236479805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039650361040689</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020394542771254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9949941883851486</v>
+        <v>0.9953934763244719</v>
       </c>
       <c r="D12">
-        <v>1.014597571938874</v>
+        <v>1.014771448701269</v>
       </c>
       <c r="E12">
-        <v>1.013492151560705</v>
+        <v>1.013817133496282</v>
       </c>
       <c r="F12">
-        <v>1.023994850242288</v>
+        <v>1.024247395355872</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042749286791111</v>
+        <v>1.042903379931474</v>
       </c>
       <c r="J12">
-        <v>1.025011924545457</v>
+        <v>1.025394080162942</v>
       </c>
       <c r="K12">
-        <v>1.029450349191055</v>
+        <v>1.029621019214925</v>
       </c>
       <c r="L12">
-        <v>1.028365349181064</v>
+        <v>1.028684321719355</v>
       </c>
       <c r="M12">
-        <v>1.038676346164895</v>
+        <v>1.038924344575186</v>
       </c>
       <c r="N12">
-        <v>1.012248945455103</v>
+        <v>1.014471436799944</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039995101057944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040191198586621</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020396779553822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9954356622874544</v>
+        <v>0.9958020128165164</v>
       </c>
       <c r="D13">
-        <v>1.014935252431172</v>
+        <v>1.015068652115425</v>
       </c>
       <c r="E13">
-        <v>1.013984865865926</v>
+        <v>1.01428219278487</v>
       </c>
       <c r="F13">
-        <v>1.024708098526323</v>
+        <v>1.024938541621009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042943941619557</v>
+        <v>1.043076685589555</v>
       </c>
       <c r="J13">
-        <v>1.025341124448006</v>
+        <v>1.025691832543772</v>
       </c>
       <c r="K13">
-        <v>1.029738710622941</v>
+        <v>1.029869660301937</v>
       </c>
       <c r="L13">
-        <v>1.028805803071645</v>
+        <v>1.029097657121719</v>
       </c>
       <c r="M13">
-        <v>1.03933426273352</v>
+        <v>1.039560578242233</v>
       </c>
       <c r="N13">
-        <v>1.012378822202097</v>
+        <v>1.014542240362295</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040791619265198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040970526817159</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020463341698812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9962061770666336</v>
+        <v>0.9965194367113436</v>
       </c>
       <c r="D14">
-        <v>1.015477499433807</v>
+        <v>1.015548801464434</v>
       </c>
       <c r="E14">
-        <v>1.014658288250064</v>
+        <v>1.014911959207363</v>
       </c>
       <c r="F14">
-        <v>1.025503930111245</v>
+        <v>1.025699406540294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043181020862014</v>
+        <v>1.043281176833325</v>
       </c>
       <c r="J14">
-        <v>1.025773520627403</v>
+        <v>1.026073593606396</v>
       </c>
       <c r="K14">
-        <v>1.030129912701649</v>
+        <v>1.030199921290784</v>
       </c>
       <c r="L14">
-        <v>1.029325579238755</v>
+        <v>1.029574639929739</v>
       </c>
       <c r="M14">
-        <v>1.039976750737474</v>
+        <v>1.04016877106225</v>
       </c>
       <c r="N14">
-        <v>1.012536767121314</v>
+        <v>1.014582484477249</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041472596224446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041624372208788</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020538823870354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9966181929431623</v>
+        <v>0.9969044051055321</v>
       </c>
       <c r="D15">
-        <v>1.015759356179727</v>
+        <v>1.015799399637528</v>
       </c>
       <c r="E15">
-        <v>1.014987727175268</v>
+        <v>1.01521934594514</v>
       </c>
       <c r="F15">
-        <v>1.025855241062646</v>
+        <v>1.026033029185376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043289996223536</v>
+        <v>1.043373849073813</v>
       </c>
       <c r="J15">
-        <v>1.025980393955752</v>
+        <v>1.026254661724418</v>
       </c>
       <c r="K15">
-        <v>1.030319758534098</v>
+        <v>1.030359081046363</v>
       </c>
       <c r="L15">
-        <v>1.029562036440682</v>
+        <v>1.029789477906764</v>
       </c>
       <c r="M15">
-        <v>1.040236185182828</v>
+        <v>1.040410854056345</v>
       </c>
       <c r="N15">
-        <v>1.012609013621478</v>
+        <v>1.014591321970388</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041715143394608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041853200881771</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020572172313972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9987842038221592</v>
+        <v>0.9989413897952674</v>
       </c>
       <c r="D16">
-        <v>1.017209053247253</v>
+        <v>1.017098672026564</v>
       </c>
       <c r="E16">
-        <v>1.016601316064586</v>
+        <v>1.01672848842782</v>
       </c>
       <c r="F16">
-        <v>1.027409644446807</v>
+        <v>1.027503487264907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043788699666401</v>
+        <v>1.043795148774727</v>
       </c>
       <c r="J16">
-        <v>1.026969202256313</v>
+        <v>1.027120151702666</v>
       </c>
       <c r="K16">
-        <v>1.031238606113164</v>
+        <v>1.031130126276401</v>
       </c>
       <c r="L16">
-        <v>1.030641344198254</v>
+        <v>1.030766323213952</v>
       </c>
       <c r="M16">
-        <v>1.041265759448971</v>
+        <v>1.041358027292788</v>
       </c>
       <c r="N16">
-        <v>1.012937708850548</v>
+        <v>1.01461436872087</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042490249508144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.042563179664221</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020719516905416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00004438266421</v>
+        <v>1.000137602920814</v>
       </c>
       <c r="D17">
-        <v>1.01803920907357</v>
+        <v>1.017851464413092</v>
       </c>
       <c r="E17">
-        <v>1.017487890292381</v>
+        <v>1.017563551552643</v>
       </c>
       <c r="F17">
-        <v>1.028181233691179</v>
+        <v>1.028233563413087</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044045139861003</v>
+        <v>1.044012657523766</v>
       </c>
       <c r="J17">
-        <v>1.027500855418668</v>
+        <v>1.027590494278272</v>
       </c>
       <c r="K17">
-        <v>1.031738169517466</v>
+        <v>1.031553568800513</v>
       </c>
       <c r="L17">
-        <v>1.031196087289226</v>
+        <v>1.03127048019014</v>
       </c>
       <c r="M17">
-        <v>1.041712550180546</v>
+        <v>1.041764025932178</v>
       </c>
       <c r="N17">
-        <v>1.013106847334086</v>
+        <v>1.014639423460589</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042714540737548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.042755232134611</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020793695496168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000637477522872</v>
+        <v>1.000707943940578</v>
       </c>
       <c r="D18">
-        <v>1.018405766697942</v>
+        <v>1.018189922336205</v>
       </c>
       <c r="E18">
-        <v>1.017809046709443</v>
+        <v>1.017866760365928</v>
       </c>
       <c r="F18">
-        <v>1.028305073166396</v>
+        <v>1.028342804340172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044110822085425</v>
+        <v>1.044064720397386</v>
       </c>
       <c r="J18">
-        <v>1.027676423338294</v>
+        <v>1.027744232659412</v>
       </c>
       <c r="K18">
-        <v>1.03191417979893</v>
+        <v>1.031701890920511</v>
       </c>
       <c r="L18">
-        <v>1.031327293977282</v>
+        <v>1.031384055843261</v>
       </c>
       <c r="M18">
-        <v>1.041652478238603</v>
+        <v>1.041689603337789</v>
       </c>
       <c r="N18">
-        <v>1.013149936697558</v>
+        <v>1.014628078170889</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042429708828984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.042459062186028</v>
+      </c>
+      <c r="S18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.020807665232548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000622387059016</v>
+        <v>1.000702263766731</v>
       </c>
       <c r="D19">
-        <v>1.018349406092643</v>
+        <v>1.018146157624716</v>
       </c>
       <c r="E19">
-        <v>1.017609819679538</v>
+        <v>1.017675778964356</v>
       </c>
       <c r="F19">
-        <v>1.027830758177228</v>
+        <v>1.02787494499712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044003935045895</v>
+        <v>1.043964630459768</v>
       </c>
       <c r="J19">
-        <v>1.027527412104696</v>
+        <v>1.027604294403097</v>
       </c>
       <c r="K19">
-        <v>1.031795860785359</v>
+        <v>1.031595942855995</v>
       </c>
       <c r="L19">
-        <v>1.031068401846256</v>
+        <v>1.031133278633667</v>
       </c>
       <c r="M19">
-        <v>1.041123723410044</v>
+        <v>1.04116720340832</v>
       </c>
       <c r="N19">
-        <v>1.013079677566216</v>
+        <v>1.014564383443338</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041686611682306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.041721000808303</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020766475786878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998914963116906</v>
+        <v>0.9990909872136799</v>
       </c>
       <c r="D20">
-        <v>1.01711981454722</v>
+        <v>1.017039880394953</v>
       </c>
       <c r="E20">
-        <v>1.01598166169947</v>
+        <v>1.016126718358425</v>
       </c>
       <c r="F20">
-        <v>1.02574737753639</v>
+        <v>1.025855065349689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043426227201242</v>
+        <v>1.043449209203227</v>
       </c>
       <c r="J20">
-        <v>1.026487775285918</v>
+        <v>1.026656994806572</v>
       </c>
       <c r="K20">
-        <v>1.030868167310798</v>
+        <v>1.030789578481656</v>
       </c>
       <c r="L20">
-        <v>1.029749195760469</v>
+        <v>1.029891804696516</v>
       </c>
       <c r="M20">
-        <v>1.039352110766256</v>
+        <v>1.039458025580321</v>
       </c>
       <c r="N20">
-        <v>1.012699117082835</v>
+        <v>1.014349383703724</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039757770642539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.039841591053573</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020574867201786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9948432592286658</v>
+        <v>0.9952774035041937</v>
       </c>
       <c r="D21">
-        <v>1.014370528711194</v>
+        <v>1.014588613688267</v>
       </c>
       <c r="E21">
-        <v>1.012859734906847</v>
+        <v>1.01321561474783</v>
       </c>
       <c r="F21">
-        <v>1.022634326927737</v>
+        <v>1.022911463451015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042438088008878</v>
+        <v>1.042616674846128</v>
       </c>
       <c r="J21">
-        <v>1.024558175106698</v>
+        <v>1.024973910176831</v>
       </c>
       <c r="K21">
-        <v>1.029084667447791</v>
+        <v>1.02929877282734</v>
       </c>
       <c r="L21">
-        <v>1.027601503772994</v>
+        <v>1.027950865450673</v>
       </c>
       <c r="M21">
-        <v>1.037199209137367</v>
+        <v>1.037471394428803</v>
       </c>
       <c r="N21">
-        <v>1.012045832869599</v>
+        <v>1.014311252236001</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038013064916491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.038228482039315</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020281249954568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.992262232985631</v>
+        <v>0.992859144594671</v>
       </c>
       <c r="D22">
-        <v>1.012636259411546</v>
+        <v>1.01304238794734</v>
       </c>
       <c r="E22">
-        <v>1.010905192928038</v>
+        <v>1.011393992983852</v>
       </c>
       <c r="F22">
-        <v>1.020710807595505</v>
+        <v>1.021094915545777</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041813228622371</v>
+        <v>1.04208991160058</v>
       </c>
       <c r="J22">
-        <v>1.023345841723496</v>
+        <v>1.02391598831592</v>
       </c>
       <c r="K22">
-        <v>1.027961478134384</v>
+        <v>1.028359825944106</v>
       </c>
       <c r="L22">
-        <v>1.026263667743293</v>
+        <v>1.026743062195267</v>
       </c>
       <c r="M22">
-        <v>1.035882849477017</v>
+        <v>1.036259749589255</v>
       </c>
       <c r="N22">
-        <v>1.011636748919005</v>
+        <v>1.014283725951222</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036971250133088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.037269542708768</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020095633903977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9936348946881411</v>
+        <v>0.9941348287595472</v>
       </c>
       <c r="D23">
-        <v>1.013558144853834</v>
+        <v>1.013856022430143</v>
       </c>
       <c r="E23">
-        <v>1.01194393944688</v>
+        <v>1.012353381458606</v>
       </c>
       <c r="F23">
-        <v>1.02173293069953</v>
+        <v>1.02205324907367</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04214621374998</v>
+        <v>1.04236541876169</v>
       </c>
       <c r="J23">
-        <v>1.023990708079451</v>
+        <v>1.024468874758984</v>
       </c>
       <c r="K23">
-        <v>1.028559008538428</v>
+        <v>1.028851323562606</v>
       </c>
       <c r="L23">
-        <v>1.026975021102608</v>
+        <v>1.027376786438884</v>
       </c>
       <c r="M23">
-        <v>1.036582671106717</v>
+        <v>1.036897131989277</v>
       </c>
       <c r="N23">
-        <v>1.011854353733681</v>
+        <v>1.014256898968698</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037525114544937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.037773990238824</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020192156030473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9989429144665503</v>
+        <v>0.9991184266476634</v>
       </c>
       <c r="D24">
-        <v>1.01713254755749</v>
+        <v>1.017052203897669</v>
       </c>
       <c r="E24">
-        <v>1.015976533880881</v>
+        <v>1.016121248781332</v>
       </c>
       <c r="F24">
-        <v>1.025703956757172</v>
+        <v>1.025811356367674</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043419044194826</v>
+        <v>1.043441846711748</v>
       </c>
       <c r="J24">
-        <v>1.026481716841003</v>
+        <v>1.02665045429767</v>
       </c>
       <c r="K24">
-        <v>1.030865331343363</v>
+        <v>1.030786338121042</v>
       </c>
       <c r="L24">
-        <v>1.02972877478568</v>
+        <v>1.029871050831313</v>
       </c>
       <c r="M24">
-        <v>1.039294233154676</v>
+        <v>1.039399866580999</v>
       </c>
       <c r="N24">
-        <v>1.012694822326283</v>
+        <v>1.01434202339558</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039671139785124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.039754741650961</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020571588605651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00491458324673</v>
+        <v>1.004866304599237</v>
       </c>
       <c r="D25">
-        <v>1.021171636903103</v>
+        <v>1.020775955007875</v>
       </c>
       <c r="E25">
-        <v>1.020544198516938</v>
+        <v>1.020507468602521</v>
       </c>
       <c r="F25">
-        <v>1.030207814221614</v>
+        <v>1.030168349119445</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044819494104447</v>
+        <v>1.044691486365255</v>
       </c>
       <c r="J25">
-        <v>1.029277676524597</v>
+        <v>1.029231000734084</v>
       </c>
       <c r="K25">
-        <v>1.033449945999859</v>
+        <v>1.033060090173392</v>
       </c>
       <c r="L25">
-        <v>1.032831748758142</v>
+        <v>1.032795560262665</v>
       </c>
       <c r="M25">
-        <v>1.042354616668428</v>
+        <v>1.042315719561755</v>
       </c>
       <c r="N25">
-        <v>1.013637913926578</v>
+        <v>1.014986482386917</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042093226863132</v>
+        <v>1.04206244247837</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.0210177494196</v>
       </c>
     </row>
   </sheetData>
